--- a/Dispa-SET/Simulation/InputDispa-SET - Location.xlsx
+++ b/Dispa-SET/Simulation/InputDispa-SET - Location.xlsx
@@ -228,12 +228,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -559,10 +558,10 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
         <v>0</v>
       </c>
     </row>
@@ -570,10 +569,10 @@
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
         <v>0</v>
       </c>
     </row>
@@ -581,10 +580,10 @@
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
         <v>0</v>
       </c>
     </row>
@@ -592,10 +591,10 @@
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
         <v>0</v>
       </c>
     </row>
@@ -603,10 +602,10 @@
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
         <v>0</v>
       </c>
     </row>
@@ -614,10 +613,10 @@
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
         <v>0</v>
       </c>
     </row>
@@ -625,10 +624,10 @@
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
         <v>0</v>
       </c>
     </row>
@@ -636,10 +635,10 @@
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
         <v>0</v>
       </c>
     </row>
@@ -647,10 +646,10 @@
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="2">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
         <v>0</v>
       </c>
     </row>
@@ -658,10 +657,10 @@
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="2">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
         <v>0</v>
       </c>
     </row>
@@ -669,10 +668,10 @@
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="2">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
         <v>0</v>
       </c>
     </row>
@@ -680,10 +679,10 @@
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="2">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
         <v>0</v>
       </c>
     </row>
@@ -691,10 +690,10 @@
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="2">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
         <v>0</v>
       </c>
     </row>
@@ -702,10 +701,10 @@
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="2">
-        <v>1</v>
-      </c>
-      <c r="C16" s="2">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
         <v>0</v>
       </c>
     </row>
@@ -713,10 +712,10 @@
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="2">
-        <v>0</v>
-      </c>
-      <c r="C17" s="2">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
         <v>1</v>
       </c>
     </row>
@@ -724,10 +723,10 @@
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="2">
-        <v>0</v>
-      </c>
-      <c r="C18" s="2">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
         <v>1</v>
       </c>
     </row>
@@ -735,10 +734,10 @@
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="2">
-        <v>0</v>
-      </c>
-      <c r="C19" s="2">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
         <v>1</v>
       </c>
     </row>
@@ -746,10 +745,10 @@
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="2">
-        <v>0</v>
-      </c>
-      <c r="C20" s="2">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
         <v>1</v>
       </c>
     </row>
@@ -757,10 +756,10 @@
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="2">
-        <v>1</v>
-      </c>
-      <c r="C21" s="2">
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
         <v>0</v>
       </c>
     </row>
@@ -768,10 +767,10 @@
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="2">
-        <v>1</v>
-      </c>
-      <c r="C22" s="2">
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
         <v>0</v>
       </c>
     </row>
@@ -779,10 +778,10 @@
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="2">
-        <v>1</v>
-      </c>
-      <c r="C23" s="2">
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
         <v>0</v>
       </c>
     </row>
@@ -790,10 +789,10 @@
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="2">
-        <v>1</v>
-      </c>
-      <c r="C24" s="2">
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
         <v>0</v>
       </c>
     </row>
@@ -801,10 +800,10 @@
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="2">
-        <v>1</v>
-      </c>
-      <c r="C25" s="2">
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
         <v>0</v>
       </c>
     </row>
@@ -812,10 +811,10 @@
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="2">
-        <v>1</v>
-      </c>
-      <c r="C26" s="2">
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
         <v>0</v>
       </c>
     </row>
@@ -823,10 +822,10 @@
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="2">
-        <v>1</v>
-      </c>
-      <c r="C27" s="2">
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
         <v>0</v>
       </c>
     </row>
@@ -834,10 +833,10 @@
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="2">
-        <v>1</v>
-      </c>
-      <c r="C28" s="2">
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
         <v>0</v>
       </c>
     </row>
@@ -845,10 +844,10 @@
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="2">
-        <v>1</v>
-      </c>
-      <c r="C29" s="2">
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
         <v>0</v>
       </c>
     </row>
@@ -856,10 +855,10 @@
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="2">
-        <v>1</v>
-      </c>
-      <c r="C30" s="2">
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
         <v>0</v>
       </c>
     </row>
@@ -867,10 +866,10 @@
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="2">
-        <v>1</v>
-      </c>
-      <c r="C31" s="2">
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
         <v>0</v>
       </c>
     </row>
@@ -878,10 +877,10 @@
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="2">
-        <v>1</v>
-      </c>
-      <c r="C32" s="2">
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
         <v>0</v>
       </c>
     </row>
@@ -889,10 +888,10 @@
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="2">
-        <v>0</v>
-      </c>
-      <c r="C33" s="2">
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
         <v>1</v>
       </c>
     </row>
@@ -900,10 +899,10 @@
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="2">
-        <v>0</v>
-      </c>
-      <c r="C34" s="2">
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
         <v>1</v>
       </c>
     </row>
@@ -911,10 +910,10 @@
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="2">
-        <v>0</v>
-      </c>
-      <c r="C35" s="2">
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
         <v>1</v>
       </c>
     </row>
@@ -922,10 +921,10 @@
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="2">
-        <v>0</v>
-      </c>
-      <c r="C36" s="2">
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
         <v>1</v>
       </c>
     </row>
@@ -933,10 +932,10 @@
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="2">
-        <v>0</v>
-      </c>
-      <c r="C37" s="2">
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
         <v>1</v>
       </c>
     </row>
@@ -944,10 +943,10 @@
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="2">
-        <v>0</v>
-      </c>
-      <c r="C38" s="2">
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
         <v>1</v>
       </c>
     </row>
@@ -955,10 +954,10 @@
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="2">
-        <v>0</v>
-      </c>
-      <c r="C39" s="2">
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
         <v>1</v>
       </c>
     </row>
@@ -966,10 +965,10 @@
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="2">
-        <v>0</v>
-      </c>
-      <c r="C40" s="2">
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
         <v>1</v>
       </c>
     </row>
@@ -977,10 +976,10 @@
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="2">
-        <v>0</v>
-      </c>
-      <c r="C41" s="2">
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
         <v>1</v>
       </c>
     </row>
@@ -988,10 +987,10 @@
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="2">
-        <v>0</v>
-      </c>
-      <c r="C42" s="2">
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
         <v>1</v>
       </c>
     </row>
@@ -999,10 +998,10 @@
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="2">
-        <v>0</v>
-      </c>
-      <c r="C43" s="2">
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
         <v>1</v>
       </c>
     </row>
@@ -1010,10 +1009,10 @@
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="2">
-        <v>1</v>
-      </c>
-      <c r="C44" s="2">
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
         <v>0</v>
       </c>
     </row>
@@ -1021,10 +1020,10 @@
       <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="2">
-        <v>1</v>
-      </c>
-      <c r="C45" s="2">
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
         <v>0</v>
       </c>
     </row>
@@ -1032,10 +1031,10 @@
       <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="2">
-        <v>1</v>
-      </c>
-      <c r="C46" s="2">
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
         <v>0</v>
       </c>
     </row>
@@ -1043,10 +1042,10 @@
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="2">
-        <v>1</v>
-      </c>
-      <c r="C47" s="2">
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
         <v>0</v>
       </c>
     </row>
@@ -1054,10 +1053,10 @@
       <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="2">
-        <v>1</v>
-      </c>
-      <c r="C48" s="2">
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
         <v>0</v>
       </c>
     </row>
@@ -1065,10 +1064,10 @@
       <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="2">
-        <v>0</v>
-      </c>
-      <c r="C49" s="2">
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
         <v>1</v>
       </c>
     </row>
@@ -1076,10 +1075,10 @@
       <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="2">
-        <v>0</v>
-      </c>
-      <c r="C50" s="2">
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
         <v>1</v>
       </c>
     </row>
@@ -1087,10 +1086,10 @@
       <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B51" s="2">
-        <v>1</v>
-      </c>
-      <c r="C51" s="2">
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
         <v>0</v>
       </c>
     </row>
